--- a/_posts/2022-05-31-personal-r-configuration-on-windows/locations.xlsx
+++ b/_posts/2022-05-31-personal-r-configuration-on-windows/locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\pipinghotdata_distill\_posts\2022-05-31-personal-r-configuration-on-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B349141A-9DEE-4445-BB6F-81B3E1105FE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60994558-1867-462E-9E02-7CE4C8E916E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34065" yWindow="5340" windowWidth="14325" windowHeight="8445" xr2:uid="{5C902730-6013-4953-87DA-D9AD08A9C515}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C902730-6013-4953-87DA-D9AD08A9C515}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Software</t>
   </si>
@@ -80,9 +80,6 @@
     <t>User home directory</t>
   </si>
   <si>
-    <t>fs::path_home()</t>
-  </si>
-  <si>
     <t>C:/Users/pileggis</t>
   </si>
   <si>
@@ -153,6 +150,18 @@
   </si>
   <si>
     <t>C:/Users/pileggis/OneDrive - Memorial Sloan Kettering Cancer Center/Documents/.shrtcts.R</t>
+  </si>
+  <si>
+    <t>Home drive</t>
+  </si>
+  <si>
+    <t>Sys.getenv("HOMEDRIVE")</t>
+  </si>
+  <si>
+    <t>C:/</t>
+  </si>
+  <si>
+    <t>Sys.getenv("USERPROFILE"), Sys.getenv("HOMEPATH"), fs::path_home()</t>
   </si>
 </sst>
 </file>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D0A01-D8A2-4966-8A37-75D27BE2550F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,13 +546,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -551,27 +560,27 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -579,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -593,10 +602,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -604,13 +616,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -618,10 +627,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -629,24 +641,21 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -654,13 +663,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -668,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -682,13 +691,27 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
